--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3631.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3631.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.955937369564849</v>
+        <v>1.405063152313232</v>
       </c>
       <c r="B1">
-        <v>2.444052571349888</v>
+        <v>1.723286509513855</v>
       </c>
       <c r="C1">
-        <v>2.518334712263672</v>
+        <v>3.213600635528564</v>
       </c>
       <c r="D1">
-        <v>2.88888164623852</v>
+        <v>1.477963805198669</v>
       </c>
       <c r="E1">
-        <v>0.7534812076107745</v>
+        <v>0.8257070779800415</v>
       </c>
     </row>
   </sheetData>
